--- a/regionseng/4/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/4/hotels and restaurants/hotels and restaurants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P13"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,7 +501,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="24.75" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
@@ -518,8 +518,12 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -533,7 +537,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="1"/>
       <c r="B3" s="14">
         <v>2006</v>
@@ -580,8 +584,14 @@
       <c r="P3" s="13">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="13">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -630,8 +640,14 @@
       <c r="P4" s="6">
         <v>168.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="6">
+        <v>291.5</v>
+      </c>
+      <c r="R4" s="6">
+        <v>408.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -680,8 +696,14 @@
       <c r="P5" s="7">
         <v>177.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="7">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="R5" s="7">
+        <v>430.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -730,8 +752,14 @@
       <c r="P6" s="8">
         <v>5326</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="8">
+        <v>5340</v>
+      </c>
+      <c r="R6" s="8">
+        <v>5458.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -780,8 +808,14 @@
       <c r="P7" s="8">
         <v>4697</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="8">
+        <v>5064</v>
+      </c>
+      <c r="R7" s="8">
+        <v>5281.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -830,8 +864,14 @@
       <c r="P8" s="6">
         <v>790.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="6">
+        <v>831.4</v>
+      </c>
+      <c r="R8" s="6">
+        <v>1085.4000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -880,8 +920,14 @@
       <c r="P9" s="6">
         <v>91.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="6">
+        <v>148.9</v>
+      </c>
+      <c r="R9" s="6">
+        <v>205.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -930,8 +976,14 @@
       <c r="P10" s="6">
         <v>45.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" customHeight="1">
+      <c r="Q10" s="6">
+        <v>51.4</v>
+      </c>
+      <c r="R10" s="6">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -980,8 +1032,14 @@
       <c r="P11" s="6">
         <v>85.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="6">
+        <v>132</v>
+      </c>
+      <c r="R11" s="6">
+        <v>224.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1030,8 +1088,14 @@
       <c r="P12" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="6">
+        <v>60.8</v>
+      </c>
+      <c r="R12" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1080,8 +1144,14 @@
       <c r="P13" s="9">
         <v>88.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="9">
+        <v>143.5</v>
+      </c>
+      <c r="R13" s="9">
+        <v>198.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1130,8 +1200,14 @@
       <c r="P14" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>

--- a/regionseng/4/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/4/hotels and restaurants/hotels and restaurants.xlsx
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,7 +501,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="24.75" customHeight="1">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="24.75" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
@@ -523,7 +523,7 @@
       <c r="Q1" s="15"/>
       <c r="R1" s="15"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -537,7 +537,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="1"/>
       <c r="B3" s="14">
         <v>2006</v>
@@ -590,8 +590,11 @@
       <c r="R3" s="13">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -646,8 +649,11 @@
       <c r="R4" s="6">
         <v>408.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="6">
+        <v>455.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -702,8 +708,11 @@
       <c r="R5" s="7">
         <v>430.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="7">
+        <v>483.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -758,8 +767,11 @@
       <c r="R6" s="8">
         <v>5458.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="8">
+        <v>5833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -814,8 +826,11 @@
       <c r="R7" s="8">
         <v>5281.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="8">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -870,8 +885,11 @@
       <c r="R8" s="6">
         <v>1085.4000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="6">
+        <v>1408.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -926,8 +944,11 @@
       <c r="R9" s="6">
         <v>205.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="6">
+        <v>253.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -982,8 +1003,11 @@
       <c r="R10" s="6">
         <v>70.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="16.5" customHeight="1">
+      <c r="S10" s="6">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1038,8 +1062,11 @@
       <c r="R11" s="6">
         <v>224.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="6">
+        <v>230.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1094,8 +1121,11 @@
       <c r="R12" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="6">
+        <v>233.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1150,8 +1180,11 @@
       <c r="R13" s="9">
         <v>198.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="9">
+        <v>260.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1206,8 +1239,11 @@
       <c r="R14" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S14" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
